--- a/simulations/test_results/all_events/stationary_events_T_0.1.xlsx
+++ b/simulations/test_results/all_events/stationary_events_T_0.1.xlsx
@@ -4,13 +4,17 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Turbine_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Turbine_2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Turbine_3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Turbine_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Turbine_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Turbine_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Turbine_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Turbine_8" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -56,18 +60,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -428,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,29 +441,428 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>t1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>t2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>∆t_s</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>σ_s</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_s)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s, σ_s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7661333333333333</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3688</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3390400000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.37464</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2702</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4738</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>27</v>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3194</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>31</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1122</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>33</v>
+      </c>
+      <c r="C11" t="n">
+        <v>43</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.09476363636363637</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>47</v>
+      </c>
+      <c r="C12" t="n">
+        <v>48</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>49</v>
+      </c>
+      <c r="C13" t="n">
+        <v>58</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.45048</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>63</v>
+      </c>
+      <c r="C14" t="n">
+        <v>64</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>68</v>
+      </c>
+      <c r="C15" t="n">
+        <v>69</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>70</v>
+      </c>
+      <c r="C16" t="n">
+        <v>73</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9649</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>74</v>
+      </c>
+      <c r="C17" t="n">
+        <v>99</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9856615384615381</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -469,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,29 +881,356 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>t1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>t2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>∆t_s</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>σ_s</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_s)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s, σ_s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5776</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1905333333333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3101333333333334</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2366</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1805333333333334</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.09359999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>47</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.04274666666666667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>48</v>
+      </c>
+      <c r="C11" t="n">
+        <v>62</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1365866666666667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>63</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0374</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>74</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9132</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>75</v>
+      </c>
+      <c r="C14" t="n">
+        <v>99</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9608639999999998</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -510,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,29 +1249,332 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>t1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>t2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>∆t_s</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>σ_s</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_s)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s, σ_s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6774</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.21768</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2825333333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3028</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2430666666666667</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1788</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.09420000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>34</v>
+      </c>
+      <c r="C11" t="n">
+        <v>65</v>
+      </c>
+      <c r="D11" t="n">
+        <v>31</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.05225</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>73</v>
+      </c>
+      <c r="C12" t="n">
+        <v>74</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9314</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>75</v>
+      </c>
+      <c r="C13" t="n">
+        <v>99</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9848000000000002</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -551,7 +1584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,28 +1593,2163 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>t1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>∆t_s</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>σ_s</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_s)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s, σ_s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5369333333333334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4476</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3704</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.30735</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3249454545454546</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>33</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.17376</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>38</v>
+      </c>
+      <c r="C9" t="n">
+        <v>39</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2672</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2168</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>63</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1696666666666667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>69</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4798666666666667</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>70</v>
+      </c>
+      <c r="C14" t="n">
+        <v>72</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5329333333333334</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>74</v>
+      </c>
+      <c r="C15" t="n">
+        <v>75</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7034</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>76</v>
+      </c>
+      <c r="C16" t="n">
+        <v>77</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8012</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>78</v>
+      </c>
+      <c r="C17" t="n">
+        <v>81</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8867</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>82</v>
+      </c>
+      <c r="C18" t="n">
+        <v>99</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9446444444444446</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>t2</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>∆t_s</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>σ_s</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_s)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s, σ_s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8841199999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4906</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1372</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>29</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4906</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>33</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>38</v>
+      </c>
+      <c r="C9" t="n">
+        <v>39</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3684</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4339999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>46</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6904</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>48</v>
+      </c>
+      <c r="C12" t="n">
+        <v>52</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.74032</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>53</v>
+      </c>
+      <c r="C13" t="n">
+        <v>54</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6634</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>55</v>
+      </c>
+      <c r="C14" t="n">
+        <v>56</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57</v>
+      </c>
+      <c r="C15" t="n">
+        <v>58</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5506</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>63</v>
+      </c>
+      <c r="C16" t="n">
+        <v>64</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>68</v>
+      </c>
+      <c r="C17" t="n">
+        <v>69</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9228</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>70</v>
+      </c>
+      <c r="C18" t="n">
+        <v>99</v>
+      </c>
+      <c r="D18" t="n">
+        <v>29</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9812133333333332</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>∆t_s</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>σ_s</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_s)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s, σ_s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6050666666666666</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5522666666666666</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2965333333333334</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2411</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1725454545454546</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07794999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>41</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.04872</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>51</v>
+      </c>
+      <c r="C11" t="n">
+        <v>58</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1232</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>59</v>
+      </c>
+      <c r="C12" t="n">
+        <v>62</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>63</v>
+      </c>
+      <c r="C13" t="n">
+        <v>64</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0694</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>74</v>
+      </c>
+      <c r="C14" t="n">
+        <v>76</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9077333333333334</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77</v>
+      </c>
+      <c r="C15" t="n">
+        <v>99</v>
+      </c>
+      <c r="D15" t="n">
+        <v>22</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9399478260869565</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>∆t_s</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>σ_s</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_s)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s, σ_s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4325</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3583999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3092</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2142666666666667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1658</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1318181818181818</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>33</v>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09080000000000002</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>43</v>
+      </c>
+      <c r="C9" t="n">
+        <v>66</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0219</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>67</v>
+      </c>
+      <c r="C10" t="n">
+        <v>68</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1354</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>74</v>
+      </c>
+      <c r="C11" t="n">
+        <v>75</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6424000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>76</v>
+      </c>
+      <c r="C12" t="n">
+        <v>77</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7342</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>78</v>
+      </c>
+      <c r="C13" t="n">
+        <v>82</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8344800000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>83</v>
+      </c>
+      <c r="C14" t="n">
+        <v>99</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8343764705882353</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>∆t_s</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>σ_s</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>λ(σ_s)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>λ(∆t_s, σ_s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3813333333333334</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2446</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1956</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1337333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1669818181818181</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1104923076923077</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>44</v>
+      </c>
+      <c r="C10" t="n">
+        <v>54</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.07760000000000002</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>55</v>
+      </c>
+      <c r="C11" t="n">
+        <v>57</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1128</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>58</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.06291428571428571</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>65</v>
+      </c>
+      <c r="C13" t="n">
+        <v>66</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>67</v>
+      </c>
+      <c r="C14" t="n">
+        <v>69</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1986666666666667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>70</v>
+      </c>
+      <c r="C15" t="n">
+        <v>71</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2734</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>73</v>
+      </c>
+      <c r="C16" t="n">
+        <v>74</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4288</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>76</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>78</v>
+      </c>
+      <c r="C18" t="n">
+        <v>82</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6576799999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>83</v>
+      </c>
+      <c r="C19" t="n">
+        <v>99</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6918823529411765</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>